--- a/datasets/worldhappinessdata.xlsx
+++ b/datasets/worldhappinessdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7688028237df000b/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{49DDBD97-5009-43DB-BFC7-BBC5EAD3CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC68D717-348A-4086-86EB-F672525DD7AB}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{49DDBD97-5009-43DB-BFC7-BBC5EAD3CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87F7202B-3226-4A7A-A38E-B633386F2FD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D47413D-47AF-438D-B496-A10316FDCCDC}"/>
   </bookViews>
@@ -484,9 +484,6 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
     <t>COUNTRY</t>
   </si>
   <si>
@@ -512,6 +509,9 @@
   </si>
   <si>
     <t>FREEDOM_TO_MAKE_LIFE_CHOICES</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21169198-95F0-41CD-8F6E-1BBD46141C05}">
   <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -881,31 +881,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
         <v>155</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>157</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>158</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>159</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>162</v>
-      </c>
-      <c r="I1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5025,7 +5025,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B144">
         <v>10.109562820858425</v>
